--- a/data/pca/factorExposure/factorExposure_2016-11-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01753534871335318</v>
+        <v>0.01467316284079852</v>
       </c>
       <c r="C2">
-        <v>-0.04633024553539655</v>
+        <v>-0.04084945784089525</v>
       </c>
       <c r="D2">
-        <v>0.02666634099689645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05817197558670686</v>
+      </c>
+      <c r="E2">
+        <v>0.02866296296532285</v>
+      </c>
+      <c r="F2">
+        <v>-0.09389836527310974</v>
+      </c>
+      <c r="G2">
+        <v>-0.02759718805448723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0596017890602892</v>
+        <v>0.03437111665506563</v>
       </c>
       <c r="C3">
-        <v>-0.09428373297241063</v>
+        <v>-0.08253692053515227</v>
       </c>
       <c r="D3">
-        <v>0.0537590052030484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09978326137056644</v>
+      </c>
+      <c r="E3">
+        <v>0.04491060785133549</v>
+      </c>
+      <c r="F3">
+        <v>-0.05734447646530244</v>
+      </c>
+      <c r="G3">
+        <v>0.06324432458808478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06355901064203624</v>
+        <v>0.05780924012024104</v>
       </c>
       <c r="C4">
-        <v>-0.06002241837438982</v>
+        <v>-0.06166342217681121</v>
       </c>
       <c r="D4">
-        <v>0.01326253206572743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05777451434063068</v>
+      </c>
+      <c r="E4">
+        <v>0.02447836239365424</v>
+      </c>
+      <c r="F4">
+        <v>-0.09071869362976892</v>
+      </c>
+      <c r="G4">
+        <v>0.0399981363053578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02870404128464847</v>
+        <v>0.03512281305495796</v>
       </c>
       <c r="C6">
-        <v>-0.04265233163056881</v>
+        <v>-0.03509218125919338</v>
       </c>
       <c r="D6">
-        <v>0.01859135330595188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06526414266466549</v>
+      </c>
+      <c r="E6">
+        <v>0.03607085153593716</v>
+      </c>
+      <c r="F6">
+        <v>-0.08409780614278117</v>
+      </c>
+      <c r="G6">
+        <v>0.01891924150475334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0234776438194157</v>
+        <v>0.02133895793839142</v>
       </c>
       <c r="C7">
-        <v>-0.03922685996916517</v>
+        <v>-0.03427998701324948</v>
       </c>
       <c r="D7">
-        <v>-0.01145825317416417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.034878524844176</v>
+      </c>
+      <c r="E7">
+        <v>0.01276621115547689</v>
+      </c>
+      <c r="F7">
+        <v>-0.1196076944276522</v>
+      </c>
+      <c r="G7">
+        <v>0.007198186636661271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001881890310594603</v>
+        <v>0.005002799695128386</v>
       </c>
       <c r="C8">
-        <v>-0.01227889127760889</v>
+        <v>-0.01970813500335547</v>
       </c>
       <c r="D8">
-        <v>0.01927389268171813</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03611913369096006</v>
+      </c>
+      <c r="E8">
+        <v>0.01999604520644525</v>
+      </c>
+      <c r="F8">
+        <v>-0.06326990665960359</v>
+      </c>
+      <c r="G8">
+        <v>0.009631077776913728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02917919906910442</v>
+        <v>0.03657135855061221</v>
       </c>
       <c r="C9">
-        <v>-0.04144434003271968</v>
+        <v>-0.04784598894602972</v>
       </c>
       <c r="D9">
-        <v>0.006767871553518133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04147078165525436</v>
+      </c>
+      <c r="E9">
+        <v>0.0193906920197313</v>
+      </c>
+      <c r="F9">
+        <v>-0.09639449450649248</v>
+      </c>
+      <c r="G9">
+        <v>0.0233142367761493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07490333514321679</v>
+        <v>0.09702625328589147</v>
       </c>
       <c r="C10">
-        <v>0.1953743876203313</v>
+        <v>0.1895720318890852</v>
       </c>
       <c r="D10">
-        <v>0.01220148667202612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001153594141231116</v>
+      </c>
+      <c r="E10">
+        <v>0.03665856036143435</v>
+      </c>
+      <c r="F10">
+        <v>-0.04447207972223741</v>
+      </c>
+      <c r="G10">
+        <v>0.004564994108953641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04265018602346218</v>
+        <v>0.03643090217964115</v>
       </c>
       <c r="C11">
-        <v>-0.05367859088976221</v>
+        <v>-0.05029501814897985</v>
       </c>
       <c r="D11">
-        <v>-0.004995918803391209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02985643325924781</v>
+      </c>
+      <c r="E11">
+        <v>-0.00693503154828114</v>
+      </c>
+      <c r="F11">
+        <v>-0.06953994664144911</v>
+      </c>
+      <c r="G11">
+        <v>0.01381397968589577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03602929854020188</v>
+        <v>0.03677118769916618</v>
       </c>
       <c r="C12">
-        <v>-0.04491647036174055</v>
+        <v>-0.04557897434054525</v>
       </c>
       <c r="D12">
-        <v>-0.006621302062916445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02294653720661809</v>
+      </c>
+      <c r="E12">
+        <v>0.0009845579343463341</v>
+      </c>
+      <c r="F12">
+        <v>-0.07165728182562221</v>
+      </c>
+      <c r="G12">
+        <v>0.009395086237952594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01050416136844235</v>
+        <v>0.01251234371715862</v>
       </c>
       <c r="C13">
-        <v>-0.04057508508519266</v>
+        <v>-0.04003192897633086</v>
       </c>
       <c r="D13">
-        <v>0.01922610174949872</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06451452420073664</v>
+      </c>
+      <c r="E13">
+        <v>0.03936510994018259</v>
+      </c>
+      <c r="F13">
+        <v>-0.1294661243722347</v>
+      </c>
+      <c r="G13">
+        <v>0.01915496718704724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006941331451914852</v>
+        <v>0.005797101284793339</v>
       </c>
       <c r="C14">
-        <v>-0.03287070151376095</v>
+        <v>-0.02746295913688786</v>
       </c>
       <c r="D14">
-        <v>-0.01569885243086717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02760799227030692</v>
+      </c>
+      <c r="E14">
+        <v>0.009710760375202299</v>
+      </c>
+      <c r="F14">
+        <v>-0.1018965432670579</v>
+      </c>
+      <c r="G14">
+        <v>-0.007761196947350365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001171208535678839</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.0009347674793079465</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001521003240441516</v>
+      </c>
+      <c r="E15">
+        <v>-0.0005662813634074736</v>
+      </c>
+      <c r="F15">
+        <v>-0.0004121919958908504</v>
+      </c>
+      <c r="G15">
+        <v>-0.00103181825968017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03580636321693661</v>
+        <v>0.03358182745170371</v>
       </c>
       <c r="C16">
-        <v>-0.04018717913275953</v>
+        <v>-0.04386726972738647</v>
       </c>
       <c r="D16">
-        <v>0.001791143865634157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0269252026258704</v>
+      </c>
+      <c r="E16">
+        <v>0.007802499954185578</v>
+      </c>
+      <c r="F16">
+        <v>-0.07417547733200386</v>
+      </c>
+      <c r="G16">
+        <v>-0.0003845743247512346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03122362417253929</v>
+        <v>0.01818580621813234</v>
       </c>
       <c r="C19">
-        <v>-0.06084601431691627</v>
+        <v>-0.04951420907601484</v>
       </c>
       <c r="D19">
-        <v>0.05460777022984844</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1043936068218022</v>
+      </c>
+      <c r="E19">
+        <v>0.05271863970400308</v>
+      </c>
+      <c r="F19">
+        <v>-0.1244885489502431</v>
+      </c>
+      <c r="G19">
+        <v>-0.01645143646779954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01505448324212893</v>
+        <v>0.01422532521448078</v>
       </c>
       <c r="C20">
-        <v>-0.04341596075853368</v>
+        <v>-0.03827819831814689</v>
       </c>
       <c r="D20">
-        <v>0.02549570658065781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04598299454083969</v>
+      </c>
+      <c r="E20">
+        <v>0.04504029004750078</v>
+      </c>
+      <c r="F20">
+        <v>-0.0975310378738561</v>
+      </c>
+      <c r="G20">
+        <v>0.002982785469496213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.00925050239422944</v>
+        <v>0.007626797409348341</v>
       </c>
       <c r="C21">
-        <v>-0.04667105474276618</v>
+        <v>-0.04112212313595827</v>
       </c>
       <c r="D21">
-        <v>0.0379696965362058</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07062785533798753</v>
+      </c>
+      <c r="E21">
+        <v>0.04165651751024465</v>
+      </c>
+      <c r="F21">
+        <v>-0.1438286031157782</v>
+      </c>
+      <c r="G21">
+        <v>0.003201813470563586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003373584072743802</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01478078043338633</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02970591880377303</v>
+      </c>
+      <c r="E22">
+        <v>0.004752137932275803</v>
+      </c>
+      <c r="F22">
+        <v>-0.01753035602377974</v>
+      </c>
+      <c r="G22">
+        <v>0.0354658448848669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003423402802092264</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01474758519443661</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02942371472252221</v>
+      </c>
+      <c r="E23">
+        <v>0.005020495813384932</v>
+      </c>
+      <c r="F23">
+        <v>-0.01724630728624582</v>
+      </c>
+      <c r="G23">
+        <v>0.03546169807797686</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03018041870758429</v>
+        <v>0.03236228477631727</v>
       </c>
       <c r="C24">
-        <v>-0.04628563697275277</v>
+        <v>-0.05041992413312199</v>
       </c>
       <c r="D24">
-        <v>-0.006341189857747761</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02452418624466502</v>
+      </c>
+      <c r="E24">
+        <v>0.002603231329183886</v>
+      </c>
+      <c r="F24">
+        <v>-0.07960384784144998</v>
+      </c>
+      <c r="G24">
+        <v>0.006626586172720871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04741111346416307</v>
+        <v>0.04236017259977935</v>
       </c>
       <c r="C25">
-        <v>-0.05730595236721951</v>
+        <v>-0.0571452690739233</v>
       </c>
       <c r="D25">
-        <v>-0.01608787426068437</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02272450702719329</v>
+      </c>
+      <c r="E25">
+        <v>-0.0004951179714168479</v>
+      </c>
+      <c r="F25">
+        <v>-0.08182375461408267</v>
+      </c>
+      <c r="G25">
+        <v>0.02290018306228596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.009563793761489315</v>
+        <v>0.0140435031786152</v>
       </c>
       <c r="C26">
-        <v>-0.0169112857136317</v>
+        <v>-0.0140625551913285</v>
       </c>
       <c r="D26">
-        <v>0.004942118154086732</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02343370165852911</v>
+      </c>
+      <c r="E26">
+        <v>0.01301611149365558</v>
+      </c>
+      <c r="F26">
+        <v>-0.08163735358694907</v>
+      </c>
+      <c r="G26">
+        <v>-0.01351480178903496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08888983268192308</v>
+        <v>0.1305283552042005</v>
       </c>
       <c r="C28">
-        <v>0.2239149421100581</v>
+        <v>0.2395333579195473</v>
       </c>
       <c r="D28">
-        <v>0.005952204699037929</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01720929737800501</v>
+      </c>
+      <c r="E28">
+        <v>0.0349874942060807</v>
+      </c>
+      <c r="F28">
+        <v>-0.0583479963997637</v>
+      </c>
+      <c r="G28">
+        <v>0.01475816836112366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01182191468666325</v>
+        <v>0.007458435298700067</v>
       </c>
       <c r="C29">
-        <v>-0.02574936320019148</v>
+        <v>-0.02333485828388735</v>
       </c>
       <c r="D29">
-        <v>-0.01408731020285122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0179200704139718</v>
+      </c>
+      <c r="E29">
+        <v>0.01435059824850783</v>
+      </c>
+      <c r="F29">
+        <v>-0.09238538849244192</v>
+      </c>
+      <c r="G29">
+        <v>0.004818005518274599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04579592351114269</v>
+        <v>0.03946644694944133</v>
       </c>
       <c r="C30">
-        <v>-0.0694909941561009</v>
+        <v>-0.05893385270130055</v>
       </c>
       <c r="D30">
-        <v>0.01193239069340957</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1000033274823372</v>
+      </c>
+      <c r="E30">
+        <v>0.00421395866605226</v>
+      </c>
+      <c r="F30">
+        <v>-0.1109325317768323</v>
+      </c>
+      <c r="G30">
+        <v>-0.0173752167614278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04265623972164164</v>
+        <v>0.05492801241476122</v>
       </c>
       <c r="C31">
-        <v>-0.03274300184961325</v>
+        <v>-0.04674527958204256</v>
       </c>
       <c r="D31">
-        <v>-0.01405396326703778</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003471014845478672</v>
+      </c>
+      <c r="E31">
+        <v>0.0334136642621456</v>
+      </c>
+      <c r="F31">
+        <v>-0.09112709847425783</v>
+      </c>
+      <c r="G31">
+        <v>0.04219554235011888</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007168591990884861</v>
+        <v>0.002190939233955661</v>
       </c>
       <c r="C32">
-        <v>-0.04096731038869336</v>
+        <v>-0.03202848046572414</v>
       </c>
       <c r="D32">
-        <v>0.0222584202198583</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05135822067074447</v>
+      </c>
+      <c r="E32">
+        <v>0.003682941772118791</v>
+      </c>
+      <c r="F32">
+        <v>-0.07349666882095834</v>
+      </c>
+      <c r="G32">
+        <v>-0.009640464371053106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02887651281438842</v>
+        <v>0.02466141900807496</v>
       </c>
       <c r="C33">
-        <v>-0.06270909612275728</v>
+        <v>-0.05112114389687918</v>
       </c>
       <c r="D33">
-        <v>0.01717766303549768</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07929016093402999</v>
+      </c>
+      <c r="E33">
+        <v>0.02180530984496795</v>
+      </c>
+      <c r="F33">
+        <v>-0.1411499195126713</v>
+      </c>
+      <c r="G33">
+        <v>0.02105968005713771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05244857385589291</v>
+        <v>0.04162329370900811</v>
       </c>
       <c r="C34">
-        <v>-0.054683793504768</v>
+        <v>-0.06237516595153751</v>
       </c>
       <c r="D34">
-        <v>-0.01205657525191059</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03048347396390214</v>
+      </c>
+      <c r="E34">
+        <v>-0.01523149098451383</v>
+      </c>
+      <c r="F34">
+        <v>-0.07696931907847027</v>
+      </c>
+      <c r="G34">
+        <v>0.009420871885626307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008881545261957948</v>
+        <v>0.01490137572566264</v>
       </c>
       <c r="C36">
-        <v>-0.01217873279468289</v>
+        <v>-0.009414354658829671</v>
       </c>
       <c r="D36">
-        <v>-0.001563995700552283</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02459076872848769</v>
+      </c>
+      <c r="E36">
+        <v>0.01778633949234835</v>
+      </c>
+      <c r="F36">
+        <v>-0.09215413236670786</v>
+      </c>
+      <c r="G36">
+        <v>0.01090328710277547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0345004414996618</v>
+        <v>0.02658360847854876</v>
       </c>
       <c r="C38">
-        <v>-0.02430220692259847</v>
+        <v>-0.02324920500798224</v>
       </c>
       <c r="D38">
-        <v>-0.005753918671593473</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02445871657235062</v>
+      </c>
+      <c r="E38">
+        <v>0.01965504410561471</v>
+      </c>
+      <c r="F38">
+        <v>-0.079115981981491</v>
+      </c>
+      <c r="G38">
+        <v>0.008749791801986298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04153385101558967</v>
+        <v>0.0379583109164786</v>
       </c>
       <c r="C39">
-        <v>-0.07166415279298059</v>
+        <v>-0.06537301621222924</v>
       </c>
       <c r="D39">
-        <v>0.01146047941950213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04813691289214448</v>
+      </c>
+      <c r="E39">
+        <v>-0.000137451820566806</v>
+      </c>
+      <c r="F39">
+        <v>-0.09638422440249138</v>
+      </c>
+      <c r="G39">
+        <v>-0.01780087701695789</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01814941756650114</v>
+        <v>0.01759389767258524</v>
       </c>
       <c r="C40">
-        <v>-0.02804295467870861</v>
+        <v>-0.03564182756622478</v>
       </c>
       <c r="D40">
-        <v>0.02897002322671203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03779723976122775</v>
+      </c>
+      <c r="E40">
+        <v>0.04825369690355644</v>
+      </c>
+      <c r="F40">
+        <v>-0.1086944112046893</v>
+      </c>
+      <c r="G40">
+        <v>0.05079238445709391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01055040511280128</v>
+        <v>0.0182985400619873</v>
       </c>
       <c r="C41">
-        <v>-0.003448469800702377</v>
+        <v>-0.003069334248980321</v>
       </c>
       <c r="D41">
-        <v>-0.005415323101978827</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01775532942266297</v>
+      </c>
+      <c r="E41">
+        <v>0.02289375818858435</v>
+      </c>
+      <c r="F41">
+        <v>-0.0820609663232366</v>
+      </c>
+      <c r="G41">
+        <v>0.003135857226243361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.006020593564726791</v>
+        <v>0.003360489904422579</v>
       </c>
       <c r="C42">
-        <v>-0.01680157313351412</v>
+        <v>-0.008853349593681881</v>
       </c>
       <c r="D42">
-        <v>0.02047491219426692</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.004984173985337229</v>
+      </c>
+      <c r="E42">
+        <v>0.01600290114781017</v>
+      </c>
+      <c r="F42">
+        <v>0.01867166226647271</v>
+      </c>
+      <c r="G42">
+        <v>0.008443578825424042</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03149032003769823</v>
+        <v>0.03073498609653137</v>
       </c>
       <c r="C43">
-        <v>-0.0171359909395758</v>
+        <v>-0.01798451952678018</v>
       </c>
       <c r="D43">
-        <v>-0.002224866737163603</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03913999480342929</v>
+      </c>
+      <c r="E43">
+        <v>0.0194304729027288</v>
+      </c>
+      <c r="F43">
+        <v>-0.1012628409007514</v>
+      </c>
+      <c r="G43">
+        <v>0.02542127823522199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02124448414542</v>
+        <v>0.01556650080373317</v>
       </c>
       <c r="C44">
-        <v>-0.054259130528435</v>
+        <v>-0.05144457510161257</v>
       </c>
       <c r="D44">
-        <v>0.01018926996594254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04254304777240745</v>
+      </c>
+      <c r="E44">
+        <v>0.03810449570705687</v>
+      </c>
+      <c r="F44">
+        <v>-0.108053424594565</v>
+      </c>
+      <c r="G44">
+        <v>-0.001787791032284625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-8.969280614341855e-05</v>
+        <v>0.008077752270542847</v>
       </c>
       <c r="C46">
-        <v>-0.01963715469047348</v>
+        <v>-0.02132984893865443</v>
       </c>
       <c r="D46">
-        <v>-0.01401015120421475</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01259456951196348</v>
+      </c>
+      <c r="E46">
+        <v>0.01897838715266981</v>
+      </c>
+      <c r="F46">
+        <v>-0.106817811851809</v>
+      </c>
+      <c r="G46">
+        <v>-0.001213918740180545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07746992163709623</v>
+        <v>0.08604441206490809</v>
       </c>
       <c r="C47">
-        <v>-0.0720369837540312</v>
+        <v>-0.0789869052776826</v>
       </c>
       <c r="D47">
-        <v>-0.01083198502315779</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00985335198095314</v>
+      </c>
+      <c r="E47">
+        <v>0.04158786989920583</v>
+      </c>
+      <c r="F47">
+        <v>-0.08799372148244107</v>
+      </c>
+      <c r="G47">
+        <v>0.04417673422786809</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01773556679851256</v>
+        <v>0.01612438447973277</v>
       </c>
       <c r="C48">
-        <v>-0.01238433557546926</v>
+        <v>-0.01441970792438239</v>
       </c>
       <c r="D48">
-        <v>-0.007270967189626707</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01706689836435944</v>
+      </c>
+      <c r="E48">
+        <v>0.02844220139776319</v>
+      </c>
+      <c r="F48">
+        <v>-0.1051557321700579</v>
+      </c>
+      <c r="G48">
+        <v>0.006855630494849902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08725548214352102</v>
+        <v>0.07250358973292406</v>
       </c>
       <c r="C50">
-        <v>-0.06813328287129218</v>
+        <v>-0.06868341521490132</v>
       </c>
       <c r="D50">
-        <v>-0.02330652874967149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0002647836790604355</v>
+      </c>
+      <c r="E50">
+        <v>0.03697194825184698</v>
+      </c>
+      <c r="F50">
+        <v>-0.0816116053922155</v>
+      </c>
+      <c r="G50">
+        <v>0.07369900957826797</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01337640683067102</v>
+        <v>0.01034572470628798</v>
       </c>
       <c r="C51">
-        <v>-0.04652830853127993</v>
+        <v>-0.03330690399816806</v>
       </c>
       <c r="D51">
-        <v>0.005564804640245558</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04710975862212868</v>
+      </c>
+      <c r="E51">
+        <v>0.005703074933387076</v>
+      </c>
+      <c r="F51">
+        <v>-0.09321356991677568</v>
+      </c>
+      <c r="G51">
+        <v>-0.01583272435244359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09639056333117912</v>
+        <v>0.09128470818325604</v>
       </c>
       <c r="C53">
-        <v>-0.07462138228588197</v>
+        <v>-0.08662022016936889</v>
       </c>
       <c r="D53">
-        <v>-0.0317749678055663</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03506212351910586</v>
+      </c>
+      <c r="E53">
+        <v>0.04693651026865804</v>
+      </c>
+      <c r="F53">
+        <v>-0.09181774778428801</v>
+      </c>
+      <c r="G53">
+        <v>0.05077510935925609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02939475529331721</v>
+        <v>0.02968572632051352</v>
       </c>
       <c r="C54">
-        <v>-0.01514256573101222</v>
+        <v>-0.02326136051645326</v>
       </c>
       <c r="D54">
-        <v>0.001965907391043825</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0332047096758858</v>
+      </c>
+      <c r="E54">
+        <v>0.01661773419867104</v>
+      </c>
+      <c r="F54">
+        <v>-0.103804314076792</v>
+      </c>
+      <c r="G54">
+        <v>0.003663413642083447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07468618893797957</v>
+        <v>0.08322549389251074</v>
       </c>
       <c r="C55">
-        <v>-0.06894979551251575</v>
+        <v>-0.06928943354619348</v>
       </c>
       <c r="D55">
-        <v>-0.03026354237759116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04189475735828737</v>
+      </c>
+      <c r="E55">
+        <v>0.04349208582322907</v>
+      </c>
+      <c r="F55">
+        <v>-0.06316074875756655</v>
+      </c>
+      <c r="G55">
+        <v>0.04354279779266839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1533676113485234</v>
+        <v>0.1450779863008863</v>
       </c>
       <c r="C56">
-        <v>-0.09032449405735907</v>
+        <v>-0.103391039152635</v>
       </c>
       <c r="D56">
-        <v>-0.02939465426597168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04480100342614721</v>
+      </c>
+      <c r="E56">
+        <v>0.047481559164691</v>
+      </c>
+      <c r="F56">
+        <v>-0.05577861360415381</v>
+      </c>
+      <c r="G56">
+        <v>0.05004619826934344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.005999694850825402</v>
+        <v>0.002660609083692094</v>
       </c>
       <c r="C57">
-        <v>-0.000781481652013326</v>
+        <v>-0.0003525425569741337</v>
       </c>
       <c r="D57">
-        <v>0.03007713151028759</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02090097938217044</v>
+      </c>
+      <c r="E57">
+        <v>0.0123533065248664</v>
+      </c>
+      <c r="F57">
+        <v>-0.01093218047109444</v>
+      </c>
+      <c r="G57">
+        <v>0.0007686802507356519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0671094553949827</v>
+        <v>0.03764766641628901</v>
       </c>
       <c r="C58">
-        <v>-0.04170581054294688</v>
+        <v>-0.02491496429380114</v>
       </c>
       <c r="D58">
-        <v>0.9573143989089361</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.5878814884754413</v>
+      </c>
+      <c r="E58">
+        <v>0.6850681199019871</v>
+      </c>
+      <c r="F58">
+        <v>0.3583085440118345</v>
+      </c>
+      <c r="G58">
+        <v>-0.01393104094524114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.131464528688939</v>
+        <v>0.1461775713218803</v>
       </c>
       <c r="C59">
-        <v>0.2058260310845335</v>
+        <v>0.1921835265753482</v>
       </c>
       <c r="D59">
-        <v>0.01451498682742041</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0268553386081475</v>
+      </c>
+      <c r="E59">
+        <v>0.01157765271648596</v>
+      </c>
+      <c r="F59">
+        <v>-0.02601123505216081</v>
+      </c>
+      <c r="G59">
+        <v>-0.03055533925907137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.315642151241939</v>
+        <v>0.2836508224318284</v>
       </c>
       <c r="C60">
-        <v>-0.08152052567432723</v>
+        <v>-0.09424044535699781</v>
       </c>
       <c r="D60">
-        <v>0.00726962823102806</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1851037910414738</v>
+      </c>
+      <c r="E60">
+        <v>-0.2867242789306556</v>
+      </c>
+      <c r="F60">
+        <v>0.1421224895800978</v>
+      </c>
+      <c r="G60">
+        <v>0.05136028756947887</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03799727482352074</v>
+        <v>0.04016223702028638</v>
       </c>
       <c r="C61">
-        <v>-0.05987719821467383</v>
+        <v>-0.05947013332668079</v>
       </c>
       <c r="D61">
-        <v>0.01016082228956142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0452105780482208</v>
+      </c>
+      <c r="E61">
+        <v>0.006561115333832955</v>
+      </c>
+      <c r="F61">
+        <v>-0.08786410836747353</v>
+      </c>
+      <c r="G61">
+        <v>0.01141361837276762</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01602725491817276</v>
+        <v>0.01613538729647392</v>
       </c>
       <c r="C63">
-        <v>-0.03255263335562453</v>
+        <v>-0.029345154385146</v>
       </c>
       <c r="D63">
-        <v>-0.008338421957673722</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01983558198723661</v>
+      </c>
+      <c r="E63">
+        <v>0.02191006890057408</v>
+      </c>
+      <c r="F63">
+        <v>-0.08512094515803467</v>
+      </c>
+      <c r="G63">
+        <v>0.02773342033414336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04803857583407037</v>
+        <v>0.0530212865837469</v>
       </c>
       <c r="C64">
-        <v>-0.02840039982783903</v>
+        <v>-0.04909123540544114</v>
       </c>
       <c r="D64">
-        <v>-0.01221388508585208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01234046755839521</v>
+      </c>
+      <c r="E64">
+        <v>0.006885932310238674</v>
+      </c>
+      <c r="F64">
+        <v>-0.09556088533199728</v>
+      </c>
+      <c r="G64">
+        <v>0.002003090956179018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09099057508762752</v>
+        <v>0.06885505999586126</v>
       </c>
       <c r="C65">
-        <v>-0.04849001363016107</v>
+        <v>-0.03853414869873557</v>
       </c>
       <c r="D65">
-        <v>0.0196388414766358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07981660527298078</v>
+      </c>
+      <c r="E65">
+        <v>0.01474692399450792</v>
+      </c>
+      <c r="F65">
+        <v>-0.0376069674535647</v>
+      </c>
+      <c r="G65">
+        <v>-0.0002829660394568423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06611228561273388</v>
+        <v>0.05145489869090592</v>
       </c>
       <c r="C66">
-        <v>-0.1073120563933828</v>
+        <v>-0.08935501372009337</v>
       </c>
       <c r="D66">
-        <v>0.01498163624217139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07388157057778406</v>
+      </c>
+      <c r="E66">
+        <v>-0.0008901731599643963</v>
+      </c>
+      <c r="F66">
+        <v>-0.1008456131518053</v>
+      </c>
+      <c r="G66">
+        <v>0.001379439384575552</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05934733004390917</v>
+        <v>0.04902652986061454</v>
       </c>
       <c r="C67">
-        <v>-0.02961693031981335</v>
+        <v>-0.02897932691495132</v>
       </c>
       <c r="D67">
-        <v>-0.01069568341401974</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01206029248822458</v>
+      </c>
+      <c r="E67">
+        <v>0.009536558451417355</v>
+      </c>
+      <c r="F67">
+        <v>-0.06321795230580761</v>
+      </c>
+      <c r="G67">
+        <v>0.01255522650275278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1161187855959419</v>
+        <v>0.1532294948819083</v>
       </c>
       <c r="C68">
-        <v>0.2940965531299968</v>
+        <v>0.2611409022911075</v>
       </c>
       <c r="D68">
-        <v>0.008391451689996471</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02020108010673403</v>
+      </c>
+      <c r="E68">
+        <v>0.0370072801746635</v>
+      </c>
+      <c r="F68">
+        <v>-0.0222281313270257</v>
+      </c>
+      <c r="G68">
+        <v>0.00580708567987528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08732493857549878</v>
+        <v>0.08634870634323158</v>
       </c>
       <c r="C69">
-        <v>-0.0678520481000458</v>
+        <v>-0.08324322452277765</v>
       </c>
       <c r="D69">
-        <v>-0.03637039536294576</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008537813422949144</v>
+      </c>
+      <c r="E69">
+        <v>0.01565491661861537</v>
+      </c>
+      <c r="F69">
+        <v>-0.09815907224539763</v>
+      </c>
+      <c r="G69">
+        <v>0.019127850337075</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1179510572233836</v>
+        <v>0.1414894237527275</v>
       </c>
       <c r="C71">
-        <v>0.245130266751217</v>
+        <v>0.2356566211181552</v>
       </c>
       <c r="D71">
-        <v>0.01628892437413829</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01233661489280759</v>
+      </c>
+      <c r="E71">
+        <v>0.04421495323495536</v>
+      </c>
+      <c r="F71">
+        <v>-0.0647755193850246</v>
+      </c>
+      <c r="G71">
+        <v>0.02692874866184634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0848748104036668</v>
+        <v>0.09228650997890157</v>
       </c>
       <c r="C72">
-        <v>-0.05197452694458095</v>
+        <v>-0.0553121239736054</v>
       </c>
       <c r="D72">
-        <v>-0.03142568323554454</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01322012116091488</v>
+      </c>
+      <c r="E72">
+        <v>-0.006051014693961906</v>
+      </c>
+      <c r="F72">
+        <v>-0.07959176717680672</v>
+      </c>
+      <c r="G72">
+        <v>0.01946723758331355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4442599065005069</v>
+        <v>0.3511413728695435</v>
       </c>
       <c r="C73">
-        <v>-0.06338142416593305</v>
+        <v>-0.07485186498719743</v>
       </c>
       <c r="D73">
-        <v>0.05928661536453209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3822477390608515</v>
+      </c>
+      <c r="E73">
+        <v>-0.4998430629986072</v>
+      </c>
+      <c r="F73">
+        <v>0.3265538446781457</v>
+      </c>
+      <c r="G73">
+        <v>0.1061417036718485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1198172932118233</v>
+        <v>0.1122056582043903</v>
       </c>
       <c r="C74">
-        <v>-0.1155277392772446</v>
+        <v>-0.1018361231083818</v>
       </c>
       <c r="D74">
-        <v>-0.028668588209978</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02100887409521455</v>
+      </c>
+      <c r="E74">
+        <v>0.06381318386492084</v>
+      </c>
+      <c r="F74">
+        <v>-0.07326809094037605</v>
+      </c>
+      <c r="G74">
+        <v>0.06801124118311744</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2626609265726667</v>
+        <v>0.2552550056457883</v>
       </c>
       <c r="C75">
-        <v>-0.121854582688567</v>
+        <v>-0.1424039499636501</v>
       </c>
       <c r="D75">
-        <v>-0.05351753288391656</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1126187154206826</v>
+      </c>
+      <c r="E75">
+        <v>0.1022226981877619</v>
+      </c>
+      <c r="F75">
+        <v>-0.02509350305544745</v>
+      </c>
+      <c r="G75">
+        <v>0.06469344337315697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1199535536385265</v>
+        <v>0.1286542346496807</v>
       </c>
       <c r="C76">
-        <v>-0.1040035567346441</v>
+        <v>-0.1054597491651993</v>
       </c>
       <c r="D76">
-        <v>-0.04216945331676484</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05408543732944212</v>
+      </c>
+      <c r="E76">
+        <v>0.07345848369301719</v>
+      </c>
+      <c r="F76">
+        <v>-0.07449715829921626</v>
+      </c>
+      <c r="G76">
+        <v>0.05271039167506972</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.076207611342183</v>
+        <v>0.06266321986993249</v>
       </c>
       <c r="C77">
-        <v>-0.05432852802019379</v>
+        <v>-0.06634647104985861</v>
       </c>
       <c r="D77">
-        <v>0.0391806083631481</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06380263853647541</v>
+      </c>
+      <c r="E77">
+        <v>0.04559611589965767</v>
+      </c>
+      <c r="F77">
+        <v>-0.1155915366546543</v>
+      </c>
+      <c r="G77">
+        <v>-0.1295679205580229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04436301302933936</v>
+        <v>0.04097900290925963</v>
       </c>
       <c r="C78">
-        <v>-0.04429209402724246</v>
+        <v>-0.05343424521728497</v>
       </c>
       <c r="D78">
-        <v>0.005761161285051521</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06410757602410955</v>
+      </c>
+      <c r="E78">
+        <v>-0.0102761085749217</v>
+      </c>
+      <c r="F78">
+        <v>-0.1037750950877791</v>
+      </c>
+      <c r="G78">
+        <v>0.005260768467435581</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01201092148757291</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.03316196206835867</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04178442763814579</v>
+      </c>
+      <c r="E79">
+        <v>0.03867849651318609</v>
+      </c>
+      <c r="F79">
+        <v>-0.02313064327523025</v>
+      </c>
+      <c r="G79">
+        <v>0.03790653407988369</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0502401014822824</v>
+        <v>0.03839216593315838</v>
       </c>
       <c r="C80">
-        <v>-0.05124291946642408</v>
+        <v>-0.04704114253720484</v>
       </c>
       <c r="D80">
-        <v>0.0293896938588133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04374911914857953</v>
+      </c>
+      <c r="E80">
+        <v>0.005798812854292918</v>
+      </c>
+      <c r="F80">
+        <v>-0.0379285850065877</v>
+      </c>
+      <c r="G80">
+        <v>-0.04138688459688106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1375328931339055</v>
+        <v>0.1403744918061314</v>
       </c>
       <c r="C81">
-        <v>-0.08205857675481154</v>
+        <v>-0.09758972219841922</v>
       </c>
       <c r="D81">
-        <v>-0.03235102760609208</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.08129325063354641</v>
+      </c>
+      <c r="E81">
+        <v>0.08826121979189877</v>
+      </c>
+      <c r="F81">
+        <v>-0.03514309850899056</v>
+      </c>
+      <c r="G81">
+        <v>0.05395847644204362</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.07171702390342062</v>
+        <v>0.1913156422770237</v>
       </c>
       <c r="C82">
-        <v>-0.04498462572589564</v>
+        <v>-0.1376887609020514</v>
       </c>
       <c r="D82">
-        <v>-0.02535755514469535</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2165878219866414</v>
+      </c>
+      <c r="E82">
+        <v>0.03304936258029081</v>
+      </c>
+      <c r="F82">
+        <v>-0.06439771227899695</v>
+      </c>
+      <c r="G82">
+        <v>0.01897935902648416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02739614299952785</v>
+        <v>0.02734997128152572</v>
       </c>
       <c r="C83">
-        <v>-0.01919542271152642</v>
+        <v>-0.03511122541491057</v>
       </c>
       <c r="D83">
-        <v>0.01738620460454883</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03307056650462844</v>
+      </c>
+      <c r="E83">
+        <v>-0.001335697495517722</v>
+      </c>
+      <c r="F83">
+        <v>-0.05134627215448334</v>
+      </c>
+      <c r="G83">
+        <v>-0.02489438920153082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2426230199846077</v>
+        <v>0.2085339347682574</v>
       </c>
       <c r="C85">
-        <v>-0.1148588207090025</v>
+        <v>-0.1250845699670575</v>
       </c>
       <c r="D85">
-        <v>-0.1218942468908213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1044878439953765</v>
+      </c>
+      <c r="E85">
+        <v>0.02781824389741396</v>
+      </c>
+      <c r="F85">
+        <v>0.01909301335330488</v>
+      </c>
+      <c r="G85">
+        <v>0.1116377713061844</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01065237356950472</v>
+        <v>0.01202600359292967</v>
       </c>
       <c r="C86">
-        <v>-0.02732412777960642</v>
+        <v>-0.03162503258922334</v>
       </c>
       <c r="D86">
-        <v>0.03171204299386365</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07514864700519826</v>
+      </c>
+      <c r="E86">
+        <v>0.01971237830861371</v>
+      </c>
+      <c r="F86">
+        <v>-0.1516226930746804</v>
+      </c>
+      <c r="G86">
+        <v>-0.01095362950195658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01426819951714476</v>
+        <v>0.02049680142268027</v>
       </c>
       <c r="C87">
-        <v>-0.02307857618100649</v>
+        <v>-0.01782225922725808</v>
       </c>
       <c r="D87">
-        <v>0.08416951124685347</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09580170620748645</v>
+      </c>
+      <c r="E87">
+        <v>0.06136159182978643</v>
+      </c>
+      <c r="F87">
+        <v>-0.1066844420503195</v>
+      </c>
+      <c r="G87">
+        <v>-0.03546163727419407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1020309745584093</v>
+        <v>0.08888741525176198</v>
       </c>
       <c r="C88">
-        <v>-0.07318239628481708</v>
+        <v>-0.06256638147368804</v>
       </c>
       <c r="D88">
-        <v>-0.01842450482618781</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01264940158267151</v>
+      </c>
+      <c r="E88">
+        <v>0.01816476674812617</v>
+      </c>
+      <c r="F88">
+        <v>-0.0759649008082577</v>
+      </c>
+      <c r="G88">
+        <v>-0.03167568540976971</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1868572178462435</v>
+        <v>0.2216855582885702</v>
       </c>
       <c r="C89">
-        <v>0.3770025964918396</v>
+        <v>0.3821220240648052</v>
       </c>
       <c r="D89">
-        <v>-0.02212164331056976</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02574196976740876</v>
+      </c>
+      <c r="E89">
+        <v>0.02528880622387392</v>
+      </c>
+      <c r="F89">
+        <v>-0.09234525375182129</v>
+      </c>
+      <c r="G89">
+        <v>-0.07203889629183814</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.172401607466797</v>
+        <v>0.2000234418062692</v>
       </c>
       <c r="C90">
-        <v>0.3508278087481916</v>
+        <v>0.3195595846412828</v>
       </c>
       <c r="D90">
-        <v>0.003305958922461263</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01556242854774324</v>
+      </c>
+      <c r="E90">
+        <v>0.05165730410513241</v>
+      </c>
+      <c r="F90">
+        <v>-0.05820884410585885</v>
+      </c>
+      <c r="G90">
+        <v>-0.01314151332629669</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2025264417486844</v>
+        <v>0.19232982484685</v>
       </c>
       <c r="C91">
-        <v>-0.1128335203789987</v>
+        <v>-0.1388238215968854</v>
       </c>
       <c r="D91">
-        <v>-0.05235027487783483</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09494235754938667</v>
+      </c>
+      <c r="E91">
+        <v>0.0845838600068221</v>
+      </c>
+      <c r="F91">
+        <v>-0.04973694136768665</v>
+      </c>
+      <c r="G91">
+        <v>0.05257656621623402</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1685837558876415</v>
+        <v>0.1827075039971937</v>
       </c>
       <c r="C92">
-        <v>0.2819779087379545</v>
+        <v>0.2787463671773804</v>
       </c>
       <c r="D92">
-        <v>-0.00570697115683831</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.00437860222427388</v>
+      </c>
+      <c r="E92">
+        <v>0.07349679902959599</v>
+      </c>
+      <c r="F92">
+        <v>-0.07571220283383545</v>
+      </c>
+      <c r="G92">
+        <v>-0.01805835737142611</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1938887068432203</v>
+        <v>0.2238270615199443</v>
       </c>
       <c r="C93">
-        <v>0.341840899195115</v>
+        <v>0.3197483677568482</v>
       </c>
       <c r="D93">
-        <v>-0.002350022496720501</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.006574978070416457</v>
+      </c>
+      <c r="E93">
+        <v>0.03917757648396373</v>
+      </c>
+      <c r="F93">
+        <v>-0.05913030670529882</v>
+      </c>
+      <c r="G93">
+        <v>0.02791461017409483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2809615068285589</v>
+        <v>0.3427475399748898</v>
       </c>
       <c r="C94">
-        <v>-0.1479190477491664</v>
+        <v>-0.1966872624743805</v>
       </c>
       <c r="D94">
-        <v>-0.1152566092089869</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4450881340929796</v>
+      </c>
+      <c r="E94">
+        <v>0.244381886936176</v>
+      </c>
+      <c r="F94">
+        <v>0.4256346486531426</v>
+      </c>
+      <c r="G94">
+        <v>-0.2571971091849083</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.09300818577948552</v>
+        <v>0.08344370324204592</v>
       </c>
       <c r="C95">
-        <v>-0.07446520164997576</v>
+        <v>-0.07571985662315472</v>
       </c>
       <c r="D95">
-        <v>0.06819890861886882</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1435344359148112</v>
+      </c>
+      <c r="E95">
+        <v>-0.128344407587127</v>
+      </c>
+      <c r="F95">
+        <v>-0.1197110277112407</v>
+      </c>
+      <c r="G95">
+        <v>-0.9015770187318707</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2076848820611896</v>
+        <v>0.1900722282778123</v>
       </c>
       <c r="C98">
-        <v>-0.02109587468263054</v>
+        <v>-0.03693313593358011</v>
       </c>
       <c r="D98">
-        <v>0.04490089345912544</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1620624928485316</v>
+      </c>
+      <c r="E98">
+        <v>-0.1639267526262503</v>
+      </c>
+      <c r="F98">
+        <v>0.05424650808505151</v>
+      </c>
+      <c r="G98">
+        <v>0.1026297616606285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01149698807776443</v>
+        <v>0.007271024031312179</v>
       </c>
       <c r="C101">
-        <v>-0.02588167568902539</v>
+        <v>-0.02331574658801924</v>
       </c>
       <c r="D101">
-        <v>-0.01429597569497976</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01745825195843677</v>
+      </c>
+      <c r="E101">
+        <v>0.01485012624913006</v>
+      </c>
+      <c r="F101">
+        <v>-0.09210760873671638</v>
+      </c>
+      <c r="G101">
+        <v>0.003801966173444543</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1229221858202433</v>
+        <v>0.1239611757713088</v>
       </c>
       <c r="C102">
-        <v>-0.07280384698046387</v>
+        <v>-0.09834658789679952</v>
       </c>
       <c r="D102">
-        <v>-0.02915846141193147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04675348892890994</v>
+      </c>
+      <c r="E102">
+        <v>0.001581726682661718</v>
+      </c>
+      <c r="F102">
+        <v>-0.0281475666626572</v>
+      </c>
+      <c r="G102">
+        <v>0.01424701307528508</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
